--- a/hand made rteports/ARQOOB Cost.xlsx
+++ b/hand made rteports/ARQOOB Cost.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39C5C0-3FC4-443C-B523-35C8B7956695}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61814849-F6B0-469C-A3D9-7EC754D18E15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1592,6 +1592,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,13 +1882,13 @@
   <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -1892,7 +1898,7 @@
       <c r="A1" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>468</v>
       </c>
       <c r="C1" s="2" t="s">
